--- a/Traceability/Traceability.xlsx
+++ b/Traceability/Traceability.xlsx
@@ -25,16 +25,16 @@
     <t>x</t>
   </si>
   <si>
+    <t>Activity Management</t>
+  </si>
+  <si>
+    <t>Push Notification</t>
+  </si>
+  <si>
     <t>Admin System</t>
   </si>
   <si>
     <t>Account Management</t>
-  </si>
-  <si>
-    <t>Activity Management</t>
-  </si>
-  <si>
-    <t>Push Notification</t>
   </si>
   <si>
     <t>UC Priority</t>
@@ -269,26 +269,14 @@
       <c r="B3" s="2">
         <v>2.0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -306,15 +294,9 @@
       <c r="S3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -326,19 +308,11 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -347,10 +321,18 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="S4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" ht="20.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -359,14 +341,26 @@
       <c r="B5" s="2">
         <v>4.0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -384,25 +378,39 @@
       <c r="S5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="T5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="20.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -411,18 +419,10 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -430,28 +430,28 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="2">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E7" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" s="2">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H7" s="2">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="I7" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="J7" s="2">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" s="2">
         <v>1.0</v>
@@ -469,25 +469,25 @@
         <v>3.0</v>
       </c>
       <c r="P7" s="2">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q7" s="2">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="R7" s="2">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="S7" s="2">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T7" s="2">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="U7" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="V7" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
